--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1977.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1977.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.340767560970602</v>
+        <v>0.5028927326202393</v>
       </c>
       <c r="B1">
-        <v>2.705344224500033</v>
+        <v>4.646374702453613</v>
       </c>
       <c r="C1">
-        <v>9.83492918900423</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.049916716343767</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.043138870934046</v>
+        <v>1.288987040519714</v>
       </c>
     </row>
   </sheetData>
